--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,15 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="41700" windowHeight="25380" activeTab="1"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="48180" windowHeight="26720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
-    <sheet name="Editorial" sheetId="5" r:id="rId2"/>
+    <sheet name="MegaMenu" sheetId="15" r:id="rId2"/>
+    <sheet name="Editorial" sheetId="5" r:id="rId3"/>
+    <sheet name="Editorial_OnlyWithTauck" sheetId="6" r:id="rId4"/>
+    <sheet name="Editorial_MediaCenter" sheetId="8" r:id="rId5"/>
+    <sheet name="Editorial_TheTuackStory" sheetId="9" r:id="rId6"/>
+    <sheet name="Editorial_WhyWeTravel" sheetId="10" r:id="rId7"/>
+    <sheet name="Editorial_PDF34" sheetId="12" r:id="rId8"/>
+    <sheet name="Editorial_PDF64" sheetId="13" r:id="rId9"/>
+    <sheet name="Editorial_PDF11" sheetId="11" r:id="rId10"/>
+    <sheet name="Editorial_PDF71" sheetId="14" r:id="rId11"/>
+    <sheet name="Template_Control" sheetId="7" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="235">
   <si>
     <t>Runmode</t>
   </si>
@@ -45,9 +52,6 @@
     <t>Chrome</t>
   </si>
   <si>
-    <t>TCID</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -72,9 +76,6 @@
     <t>RightClickInsert</t>
   </si>
   <si>
-    <t>One Column Copy</t>
-  </si>
-  <si>
     <t>Winter,Forrest</t>
   </si>
   <si>
@@ -129,18 +130,6 @@
     <t>Vertical and Horizontal featured content</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Ship_Details</t>
-  </si>
-  <si>
-    <t>Mega_Menu</t>
-  </si>
-  <si>
     <t>Content_HeroSettings</t>
   </si>
   <si>
@@ -214,21 +203,6 @@
   </si>
   <si>
     <t>Anthony Lewis|Tauck's Travels|5/17/2018_Vinit|Vinit's Travels|8/17/2018</t>
-  </si>
-  <si>
-    <t>One Column,Two Column,Three Column</t>
-  </si>
-  <si>
-    <t>One Column Copy|One Column Copy|One Column Copy|One Column Rendering|Two Column Rendering|Three Column Rendering</t>
-  </si>
-  <si>
-    <t>/main_editorial/onecolumn|/main_editorial/rightsidecolumn|/main_editorial/middlecolumn|main_editorial|main_editorial|main_editorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/sitecore/content/Tauck/Home/automation-editorial/text-copy-folder/one-column|/sitecore/content/Tauck/Home/automation-editorial/text-copy-folder/two-column|/sitecore/content/Tauck/Home/automation-editorial/text-copy-folder/three-column| | | </t>
-  </si>
-  <si>
-    <t>ONE COLUMN COPY TEST - Exceptionally Spacious Accommodations The large Staterooms and Suites range in size from 200 to 398 square feet. 95% of the ship’s accommodations feature private balconies_TWO COLUMN COPY TEST - Immerse in the Earth Journeys experience, featuring custom-made BBC Earth on-tour film vignettes and when the opportunity arises, the use of field equipment. Few experiences can compare to the feeling you'll have as you head off on an expeditionary Antarctica cruise to a magnificent glacial continent that defies description. Your adv... see lions resting under enormous baobab trees... wildebeest making their way past herds of elephants and gazelles... elephants, up close. Travel aboard our open-top Africa safari vehicles where everyone has a great view of Tanzania's amazing wildlife during morning and afternoon game drives_THREE COLUMN COPY TEST -The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities.All Suites and the majority of the Staterooms feature two twin beds which can be converted into one queen-size bed, a private bathroom with shower (some with bathtub), international direct dial telephone, satellite flat screen television, DVD/CD, iPod dock with speakers, wireless Internet access, safe, minibar, full-length closets, writing desk/dressing table, hair dryer, duvet and plush terry cloth robes.Public areas have been designed to accommodate passenger numbers exceeding the ship’s capacity to ensure guests can enjoy an inviting, spacious ambiance. The attractive 3,000-square-foot Le Club lounge, where nightly entertainment is showcased, is complete with a dance floor, while the Panoramic Lounge is designed to offer breathtaking views. The state-of-the-art theatre is the perfect venue for lectures, cultural performances and film screenings. There is a library, casino, Internet salon offering Internet access and computer stations for personal use, beauty salon, elevator and infirmary.</t>
   </si>
   <si>
     <t>Grid Media Card One,Grid Media Card Two,Grid Media Card Three,Grid Media Card Four</t>
@@ -332,9 +306,6 @@
     <t>Brand1,Brand2,Brand3,Brand4,Brand5,Brand6</t>
   </si>
   <si>
-    <t>/Tauck/Editorial/Images/130x130_/Tauck/Editorial/Images/130x130_/Tauck/Editorial/Images/130x130_/Tauck/Editorial/Images/130x130_/Tauck/Editorial/Images/130x130_/Tauck/Editorial/Images/130x130</t>
-  </si>
-  <si>
     <t>FeaturedBrandsModule</t>
   </si>
   <si>
@@ -350,18 +321,6 @@
     <t>Winter is Coming|Eddard Stark|3 Tauck Tours|/Tauck/Editorial/Images/PonantLogo_The diversity and variation of things really made the tour something unexpectedly great|Jack Freeman|7 TAUCK TOURS|/Tauck/Editorial/Images/WindstarLogo</t>
   </si>
   <si>
-    <t>Miyajima Torri Gate|World Heritage Location of Miyajima|/Tauck/Editorial/Us1_Immerse in the Earth Journeys experience|Tanzania's amazing wildlife during morning and afternoon game drives|/Tauck/Editorial/Us2_The attractive 3,000-square-foot Le Club lounge| DVD/CD, iPod dock with speakers|/Tauck/Editorial/us3_The Le Boreal is the newest ship sailing to Antarctica|All Suites and the majority of the Staterooms|/Tauck/Editorial/Us4</t>
-  </si>
-  <si>
-    <t>4150229195001|/Tauck/Editorial/Images/LC-top-photo|Caption Description|Caption Title here</t>
-  </si>
-  <si>
-    <t>Arthur Tauck|CHAIRMAN OF THE BOARD, TAUCK INC|A true visionary in the global tourism industry, with a career spanning 50 years as a travel industry leader, Arthur pioneered travel to all corners of North America and around the world.|/Tauck/Editorial/Images/746x1280_Daniel W. Mahar|CEO / BOARD DIRECTOR|Responsible for strategy, plan execution and meeting short / long term goals of the business. Dan has served as VP Sales &amp; Marketing; launched Tauck Ventures and built our Tauck Bridges and River Cruise businesses. Dan and his wife Kiki Tauck Mahar are the parents of five children.|/Tauck/Editorial/Images/746x1280_Robin Tauck|PAST PRESIDENT &amp; CEO|Robin was instrumental in building strategic global growth to more than 65 countries and seven continents, including Tauck's small ship cruising and exotics growth. She founded Tauck's World of Giving for destination preservation, and is an advocate for public private partnerships through various boards. She has one daughter.|/Tauck/Editorial/Images/746x1280_Liz Tauck Walters|BOARD DIRECTOR|Liz has held a variety of administrative positions in the fields of education and non-profit management, including serving as Managing Director of the Tauck Family Foundation for 10 years. She resides on Bainbridge Island, WA, with her pediatrician husband Fred and their three young girls.|/Tauck/Editorial/Images/746x1280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4150229195001|/Tauck/Editorial/india1|This is FIRST media card| _4150229195001|/Tauck/Editorial/india3|This is SECOND media card| _4150229195001|/Tauck/Editorial/india2|This is THIRD media card| </t>
-  </si>
-  <si>
     <t>HalfWidthMedia</t>
   </si>
   <si>
@@ -374,9 +333,6 @@
     <t>Media Segment One,Media Segment Two</t>
   </si>
   <si>
-    <t>Small Groups|Eyebrow|none|Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate.| |View Itineraries|/Tauck/Editorial/Images/Koala/545x318/C1_BBC Earth Journeys|Eyebrow|none|This 2017 program was created to put a spotlight on why we travel together by taking you behind the scenes with travelers who explored the world with tour operator members like Tauck. Our Switzerland: Europe’s Crown Jewel was chosen as one of their featured destinations. Tauck guests Diane and Scott Buchanan shared their reasons for choosing Switzerland as their vacation destination, and why they selected Tauck to take them there, with the photojournalists from USA Today.| |View Itineraries|/Tauck/Editorial/Images/Koala/545x318/C2</t>
-  </si>
-  <si>
     <t>Half Width Media Component</t>
   </si>
   <si>
@@ -384,13 +340,518 @@
   </si>
   <si>
     <t>Content_Segment</t>
+  </si>
+  <si>
+    <t>Rich Text Copy</t>
+  </si>
+  <si>
+    <t>Miyajima Torri Gate|World Heritage Location of Miyajima|/Tauck/Editorial/Images/1280x746_Immerse in the Earth Journeys experience|Tanzania's amazing wildlife during morning and afternoon game drives|/Tauck/Editorial/Images/1280x746_The attractive 3,000-square-foot Le Club lounge| DVD/CD, iPod dock with speakers|/Tauck/Editorial/Images/1280x746_The Le Boreal is the newest ship sailing to Antarctica|All Suites and the majority of the Staterooms|/Tauck/Editorial/Images/1280x746</t>
+  </si>
+  <si>
+    <t>4150229195001|/Tauck/Editorial/Images/taj|Caption Description|Caption Title here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4150229195001|/Tauck/Editorial/Images/taj/india2|This is FIRST media card| _4150229195001|/Tauck/Editorial/Images/taj/us3|This is SECOND media card| _4150229195001|/Tauck/Editorial/Images/taj/B2|This is THIRD media card| </t>
+  </si>
+  <si>
+    <t>Arthur Tauck|CHAIRMAN OF THE BOARD, TAUCK INC|A true visionary in the global tourism industry, with a career spanning 50 years as a travel industry leader, Arthur pioneered travel to all corners of North America and around the world.|/Tauck/Editorial/Images/150x250_Daniel W. Mahar|CEO / BOARD DIRECTOR|Responsible for strategy, plan execution and meeting short / long term goals of the business. Dan has served as VP Sales &amp; Marketing; launched Tauck Ventures and built our Tauck Bridges and River Cruise businesses. Dan and his wife Kiki Tauck Mahar are the parents of five children.|/Tauck/Editorial/Images/150x250_Robin Tauck|PAST PRESIDENT &amp; CEO|Robin was instrumental in building strategic global growth to more than 65 countries and seven continents, including Tauck's small ship cruising and exotics growth. She founded Tauck's World of Giving for destination preservation, and is an advocate for public private partnerships through various boards. She has one daughter.|/Tauck/Editorial/Images/150x250_Liz Tauck Walters|BOARD DIRECTOR|Liz has held a variety of administrative positions in the fields of education and non-profit management, including serving as Managing Director of the Tauck Family Foundation for 10 years. She resides on Bainbridge Island, WA, with her pediatrician husband Fred and their three young girls.|/Tauck/Editorial/Images/150x250</t>
+  </si>
+  <si>
+    <t>/Tauck/Editorial/Images/taj/130x130_/Tauck/Editorial/Images/taj/130x130_/Tauck/Editorial/Images/taj/130x130_/Tauck/Editorial/Images/taj/130x130_/Tauck/Editorial/Images/taj/130x130_/Tauck/Editorial/Images/taj/130x130</t>
+  </si>
+  <si>
+    <t>Small Groups|Eyebrow|none|Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate.| |View Itineraries|/Tauck/Editorial/Images/taj/b1_BBC Earth Journeys|Eyebrow|none|This 2017 program was created to put a spotlight on why we travel together by taking you behind the scenes with travelers who explored the world with tour operator members like Tauck. Our Switzerland: Europe’s Crown Jewel was chosen as one of their featured destinations. Tauck guests Diane and Scott Buchanan shared their reasons for choosing Switzerland as their vacation destination, and why they selected Tauck to take them there, with the photojournalists from USA Today.| |View Itineraries|/Tauck/Editorial/Images/taj/india1</t>
+  </si>
+  <si>
+    <t>One Column,Two Column,Three Column,Another Three Column</t>
+  </si>
+  <si>
+    <t>ONE COLUMN COPY TEST - Exceptionally Spacious Accommodations The large Staterooms and Suites range in size from 200 to 398 square feet. 95% of the ship’s accommodations feature private balconies_TWO COLUMN COPY TEST - Immerse in the Earth Journeys experience, featuring custom-made BBC Earth on-tour film vignettes and when the opportunity arises, the use of field equipment. Few experiences can compare to the feeling you'll have as you head off on an expeditionary Antarctica cruise to a magnificent glacial continent that defies description. Your adv... see lions resting under enormous baobab trees... wildebeest making their way past herds of elephants and gazelles... elephants, up close. Travel aboard our open-top Africa safari vehicles where everyone has a great view of Tanzania's amazing wildlife during morning and afternoon game drives_THREE COLUMN COPY TEST -The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities.All Suites and the majority of the Staterooms feature two twin beds which can be converted into one queen-size bed, a private bathroom with shower (some with bathtub), international direct dial telephone, satellite flat screen television, DVD/CD, iPod dock with speakers, wireless Internet access, safe, minibar, full-length closets, writing desk/dressing table, hair dryer, duvet and plush terry cloth robes.Public areas have been designed to accommodate passenger numbers exceeding the ship’s capacity to ensure guests can enjoy an inviting, spacious ambiance. The attractive 3,000-square-foot Le Club lounge, where nightly entertainment is showcased, is complete with a dance floor, while the Panoramic Lounge is designed to offer breathtaking views. The state-of-the-art theatre is the perfect venue for lectures, cultural performances and film screenings. There is a library, casino, Internet salon offering Internet access and computer stations for personal use, beauty salon, elevator and infirmary._ANOTHER THREE COLUMN TEST -Exclusive Deluxe (Luxury) Suite and Stateroom Amenities All Suites and the majority of the Staterooms feature two twin beds which can be converted into one queen-size bed, a private bathroom with shower (some with bathtub), international direct dial telephone, satellite flat screen television, DVD/CD, iPod dock with speakers, wireless Internet access, safe, minibar, full-length closets, writing desk/dressing table, hair dryer, duvet and plush terry cloth robes.</t>
+  </si>
+  <si>
+    <t>Rich Text Copy|Three Column Rendering|Rich Text Copy|One Column Rendering|Rich Text Copy|Two Column Rendering|Rich Text Copy|Three Column Rendering</t>
+  </si>
+  <si>
+    <t>/main_editorial/middlecolumn|main_editorial|/main_editorial/onecolumn|main_editorial|/main_editorial/rightsidecolumn|main_editorial|/main_editorial/middlecolumn_SCEXP1|main_editorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/sitecore/content/Tauck/Home/automation-editorial/text-copy-folder/three-column| |/sitecore/content/Tauck/Home/automation-editorial/text-copy-folder/one-column| |/sitecore/content/Tauck/Home/automation-editorial/text-copy-folder/two-column| |/sitecore/content/Tauck/Home/automation-editorial/text-copy-folder/another-three-column| </t>
+  </si>
+  <si>
+    <t>PreFeededSubCategories</t>
+  </si>
+  <si>
+    <t>CategoriesList</t>
+  </si>
+  <si>
+    <t>Editorial Title|Header Hero|Half Width Media Module 1|Half Width Media Module 2|Text Copy Folder</t>
+  </si>
+  <si>
+    <t>NameOfCategoryToMapDataWith</t>
+  </si>
+  <si>
+    <t>Editorial_OnlyWithTauck</t>
+  </si>
+  <si>
+    <t>EditorialTitle</t>
+  </si>
+  <si>
+    <t>Editorial Title</t>
+  </si>
+  <si>
+    <t>Header Hero</t>
+  </si>
+  <si>
+    <t>HeaderHero</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>preFeededComponentName</t>
+  </si>
+  <si>
+    <t>Half Width Media Module 1</t>
+  </si>
+  <si>
+    <t>Half Width Media Module 2</t>
+  </si>
+  <si>
+    <t>Another Small Groups|Eyebrow|none|Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate.| |View Itineraries|/Tauck/Editorial/Images/taj/b1_Another BBC Earth Journeys|Eyebrow|none|This 2017 program was created to put a spotlight on why we travel together by taking you behind the scenes with travelers who explored the world with tour operator members like Tauck. Our Switzerland: Europe’s Crown Jewel was chosen as one of their featured destinations. Tauck guests Diane and Scott Buchanan shared their reasons for choosing Switzerland as their vacation destination, and why they selected Tauck to take them there, with the photojournalists from USA Today.| |View Itineraries|/Tauck/Editorial/Images/taj/india1</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_onlywithtauck/Header Hero</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_onlywithtauck/Editorial Title</t>
+  </si>
+  <si>
+    <t>Half Width Media Component|Half Width Media Component</t>
+  </si>
+  <si>
+    <t>main_editorial|main_editorial</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_onlywithtauck/Half Width Media Module 1|/sitecore/content/Tauck/Home/editorial_onlywithtauck/Half Width Media Module 2</t>
+  </si>
+  <si>
+    <t>Three Column,One Column</t>
+  </si>
+  <si>
+    <t>THREE COLUMN COPY TEST -The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities.All Suites and the majority of the Staterooms feature two twin beds which can be converted into one queen-size bed, a private bathroom with shower (some with bathtub), international direct dial telephone, satellite flat screen television, DVD/CD, iPod dock with speakers, wireless Internet access, safe, minibar, full-length closets, writing desk/dressing table, hair dryer, duvet and plush terry cloth robes.Public areas have been designed to accommodate passenger numbers exceeding the ship’s capacity to ensure guests can enjoy an inviting, spacious ambiance. The attractive 3,000-square-foot Le Club lounge, where nightly entertainment is showcased, is complete with a dance floor, while the Panoramic Lounge is designed to offer breathtaking views. The state-of-the-art theatre is the perfect venue for lectures, cultural performances and film screenings. There is a library, casino, Internet salon offering Internet access and computer stations for personal use, beauty salon, elevator and infirmary._ONE COLUMN COPY TEST - Exceptionally Spacious Accommodations The large Staterooms and Suites range in size from 200 to 398 square feet. 95% of the ship’s accommodations feature private balconies</t>
+  </si>
+  <si>
+    <t>Three Column Rendering|Rich Text Copy|Text Size Component|One Column Rendering|Rich Text Copy</t>
+  </si>
+  <si>
+    <t>main_editorial|/main_editorial/middlecolumn|/main_editorial/rightcolumn|main_editorial|/main_editorial/onecolumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |/sitecore/content/Tauck/Home/editorial_onlywithtauck/Text Copy Folder/three-column| | |/sitecore/content/Tauck/Home/editorial_onlywithtauck/Text Copy Folder/one-column</t>
+  </si>
+  <si>
+    <t>Editorial_MediaCenter</t>
+  </si>
+  <si>
+    <t>Editorial Title|Editorial Flex Cards|Text Copy Folder</t>
+  </si>
+  <si>
+    <t>Three Column</t>
+  </si>
+  <si>
+    <t>Three Column Rendering|Rich Text Copy|Text Size Component</t>
+  </si>
+  <si>
+    <t>main_editorial|/main_editorial/middlecolumn|/main_editorial/rightcolumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to guide to Tauck travel
+Cruise Ireland and England on a 12-day voyage from London to Dublin aboard a luxury small ship, taking in major cities as well as captivating islands off the beaten path, from the Isles ...
+Read More  How to guide to Tauck travel
+Cruise Ireland and England on a 12-day voyage from London to Dublin aboard a luxury small ship, taking in major cities as well as captivating islands off the beaten path, from the Isles ...
+Read More  How to guide to Tauck travel
+Cruise Ireland and England on a 12-day voyage from London to Dublin aboard a luxury small ship, taking in major cities as well as captivating islands off the beaten path, from the Isles ...
+Read More  How to guide to Tauck travel
+Cruise Ireland and England on a 12-day voyage from London to Dublin aboard a luxury small ship, taking in major cities as well as captivating islands off the beaten path, from the Isles ...
+Read More </t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_mediacenter/Editorial Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |/sitecore/content/Tauck/Home/editorial_mediacenter/Text Copy Folder/three-column| </t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_mediacenter/Editorial Flex Cards|/sitecore/content/Tauck/Home/editorial_mediacenter/Editorial Flex Cards/our-mission|/sitecore/content/Tauck/Home/editorial_mediacenter/Editorial Flex Cards/tauck-address|/sitecore/content/Tauck/Home/editorial_mediacenter/Editorial Flex Cards/tom-armstrong</t>
+  </si>
+  <si>
+    <t>Editorial_TheTuackStory</t>
+  </si>
+  <si>
+    <t>Editorial Title|Header Hero|Text Copy Folder|Category Card Module|New Media Carousel</t>
+  </si>
+  <si>
+    <t>New Media Carousel</t>
+  </si>
+  <si>
+    <t>As long-standing members of the United States Tour Operators Association, founded as a tour operator advocacy group to safeguard travelers’ interests, foster trust and encourage high standards of tourism around the world, we were invited to take part in their “Why We Travel” campaign.
+This 2017 program was created to put a spotlight on why we travel together by taking you behind the scenes with travelers who explored the world with tour operator members like Tauck. Our Switzerland: Europe’s Crown Jewel was chosen as one of their featured destinations. Tauck guests Diane and Scott Buchanan shared their reasons for choosing Switzerland as their vacation destination, and why they selected Tauck to take them there, with the photojournalists from USA Today.</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thetuackstory/Header Hero</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thetuackstory/Editorial Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |/sitecore/content/Tauck/Home/editorial_thetuackstory/Text Copy Folder/three-column| </t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thetuackstory/Category Card Module|/sitecore/content/Tauck/Home/editorial_thetuackstory/Category Card Module/arthur-tauck|/sitecore/content/Tauck/Home/editorial_thetuackstory/Category Card Module/daniel-w-mahar|/sitecore/content/Tauck/Home/editorial_thetuackstory/Category Card Module/liz-tauck-walters|/sitecore/content/Tauck/Home/editorial_thetuackstory/Category Card Module/robin-tauck</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thetuackstory/New Media Carousel</t>
+  </si>
+  <si>
+    <t>Editorial_WhyWeTravel</t>
+  </si>
+  <si>
+    <t>Author Profile|Editorial Title|Header Hero|Text Copy Folder|Editorial Quotes|Media Carousel|Grid Media Folder|Featured Brand Module|Featured Content</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Header Hero</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Editorial Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |/sitecore/content/Tauck/Home/editorial_whywetravel/Text Copy Folder/three-column| </t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Media Carousel</t>
+  </si>
+  <si>
+    <t>/main_editorial/leftcolumn</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Author Profile</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Editorial Quotes/forrest|/sitecore/content/Tauck/Home/editorial_whywetravel/Editorial Quotes/winter</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Grid Media Folder</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Featured Brand Module</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_whywetravel/Featured Content|/sitecore/content/Tauck/Home/editorial_whywetravel/Featured Content</t>
+  </si>
+  <si>
+    <t>Anthony Lewis|Tauck's Travels|5/17/2018</t>
+  </si>
+  <si>
+    <t>Editorial_PDF11</t>
+  </si>
+  <si>
+    <t>One Column,Two Column,Another One Column,Another Two Column</t>
+  </si>
+  <si>
+    <t>ONE COLUMN The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities._TWO COLUMN Immerse in the Earth Journeys experience, featuring custom-made BBC Earth on-tour film vignettes and when the opportunity arises, the use of field equipment. Few experiences can compare to the feeling you'll have as you head off on an expeditionary Antarctica cruise to a magnificent glacial continent that defies description. Your adv... see lions resting under enormous baobab trees... wildebeest making their way past herds of elephants and gazelles... elephants, up close. Travel aboard our open-top Africa safari vehicles where everyone has a great view of Tanzania's amazing wildlife during morning and afternoon game drives._ANOTHER ONE COLUMN Continental breakfast, buffet breakfast, buffet lunch, afternoon tea, a three-course dinner and a late-evening snack are served daily. Complimentary wine and beer are served at lunch and dinner. Additionally, bar service is available on the Sun Deck._ANOTHER TWO COLUMN If a comparison to heaven comes to mind while you’re standing on the top of Monte San Salvatore, looking out over southern Switzerland’s glittering lakes, mountains and quaint towns adjacent to the Italian border, you’re in good company. “The legend says that on the day of the ascension, Jesus Christ stopped here just to have a last view of the world’s beauty,” local tour guide Jaime Perdomo explained while looking out over the expansive view from nearly 3,000 feet above sea level. “Now pilgrims come here to follow the legend and feel themselves near to heaven.”Thirty such United States-based travelers spent 11 days traveling on Tauck’s Switzerland: Europe’s Crown Jewel tour, exploring nearly all the corners of the country, from Gruyères and Montreux to Zermatt and Lucerne to Interlaken and Lugano. Though it is an ambitious bucket list, the Tauck travel team, with their cadre of tour architects, tour directors, expert drivers and local guides created a carefully choreographed itinerary that rivaled even the Swiss reputation for efficiency. It played out beautifully for traveler Scott Buchanan, who was on the tour with his wife, Diane. “It sounds regimented. But with a little bit of efficiency, you increase your experience exponentially,” he says. “In the end, it’s more relaxing.</t>
+  </si>
+  <si>
+    <t>Editorial Title|Text Copy Folder</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_pdf11/Editorial Title</t>
+  </si>
+  <si>
+    <t>One Column Rendering|Rich Text Copy|Two Column Rendering|Rich Text Copy|One Column Rendering|Rich Text Copy|Two Column Rendering|Rich Text Copy</t>
+  </si>
+  <si>
+    <t>main_editorial|/main_editorial/onecolumn|main_editorial|/main_editorial/middlecolumn_SCEXP1|main_editorial|/main_editorial/onecolumn|main_editorial|/main_editorial/middlecolumn_SCEXP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |/sitecore/content/Tauck/Home/editorial_pdf11/Text Copy Folder/one-column| |/sitecore/content/Tauck/Home/editorial_pdf11/Text Copy Folder/two-column| |/sitecore/content/Tauck/Home/editorial_pdf11/Text Copy Folder/another-one-column| |/sitecore/content/Tauck/Home/editorial_pdf11/Text Copy Folder/another-two-column</t>
+  </si>
+  <si>
+    <t>Editorial_PDF34</t>
+  </si>
+  <si>
+    <t>One Column,Two Column</t>
+  </si>
+  <si>
+    <t>ONE COLUMN The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities._TWO COLUMN Immerse in the Earth Journeys experience, featuring custom-made BBC Earth on-tour film vignettes and when the opportunity arises, the use of field equipment. Few experiences can compare to the feeling you'll have as you head off on an expeditionary Antarctica cruise to a magnificent glacial continent that defies description. Your adv... see lions resting under enormous baobab trees... wildebeest making their way past herds of elephants and gazelles... elephants, up close. Travel aboard our open-top Africa safari vehicles where everyone has a great view of Tanzania's amazing wildlife during morning and afternoon game drives.</t>
+  </si>
+  <si>
+    <t>One Column Rendering|Rich Text Copy|Two Column Rendering|Rich Text Copy</t>
+  </si>
+  <si>
+    <t>main_editorial|/main_editorial/onecolumn|main_editorial|/main_editorial/middlecolumn_SCEXP1</t>
+  </si>
+  <si>
+    <t>Editorial_PDF64</t>
+  </si>
+  <si>
+    <t>Editorial Title|Text Copy Folder|Half Width Media Module 1|Half Width Media Module 2|Half Width Media Module 3</t>
+  </si>
+  <si>
+    <t>Half Width Media Module 3</t>
+  </si>
+  <si>
+    <t>Half Width Media Component|Half Width Media Component|Half Width Media Component</t>
+  </si>
+  <si>
+    <t>main_editorial|main_editorial|main_editorial</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_pdf64/Half Width Media Module 1|/sitecore/content/Tauck/Home/editorial_pdf64/Half Width Media Module 2|/sitecore/content/Tauck/Home/editorial_pdf64/Half Width Media Module 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |/sitecore/content/Tauck/Home/editorial_pdf64/Text Copy Folder/one-column| |/sitecore/content/Tauck/Home/editorial_pdf64/Text Copy Folder/two-column</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_pdf64/Editorial Title</t>
+  </si>
+  <si>
+    <t>Editorial Title|Header Hero|Text Copy Folder|Featured Content</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_pdf71/Editorial Title</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_pdf71/Header Hero</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial-pdf71/Featured Content|/sitecore/content/Tauck/Home/editorial-pdf71/Featured Content</t>
+  </si>
+  <si>
+    <t>Editorial_PDF71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |/sitecore/content/Tauck/Home/editorial_pdf71/Text Copy Folder/one-column| |/sitecore/content/Tauck/Home/editorial_pdf71/Text Copy Folder/two-column</t>
+  </si>
+  <si>
+    <t>TEMPLATE</t>
+  </si>
+  <si>
+    <t>MegaMenu</t>
+  </si>
+  <si>
+    <t>Destinations</t>
+  </si>
+  <si>
+    <t>WhyTauck</t>
+  </si>
+  <si>
+    <t>SubMenus</t>
+  </si>
+  <si>
+    <t>Guest Favorites</t>
+  </si>
+  <si>
+    <t>Whats New</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Menu Collection</t>
+  </si>
+  <si>
+    <t>POPULAR TOURS</t>
+  </si>
+  <si>
+    <t>Popular Tours|/Tauck/Home/small-ship-cruises/antarctica</t>
+  </si>
+  <si>
+    <t>Popular Tours|/Tauck/Home/small-ship-cruises/grand-alaska</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>NavigateToNodePath</t>
+  </si>
+  <si>
+    <t>MegaMenu_Automation|Destinations|Tours and Cruises|Why Tauck</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header|/sitecore/content/Tauck/Global/navigation/header/megamenu_automation|/sitecore/content/Tauck/Global/navigation/header/megamenu_automation|/sitecore/content/Tauck/Global/navigation/header/megamenu_automation</t>
+  </si>
+  <si>
+    <t>ComponentToBeInsert</t>
+  </si>
+  <si>
+    <t>/sitecore/templates/Project/Common/Content Types/Global Content Types/MegaMenu|/sitecore/templates/Project/Common/Content Types/Global Content Types/Menu Section|/sitecore/templates/Project/Common/Content Types/Global Content Types/Menu Section|/sitecore/templates/Project/Common/Content Types/Global Content Types/Menu Section</t>
+  </si>
+  <si>
+    <t>Insert from Template|Insert from Template|Insert from Template|Insert from Template</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/destinations</t>
+  </si>
+  <si>
+    <t>Collection Section Menu Item</t>
+  </si>
+  <si>
+    <t>Section Menu Item</t>
+  </si>
+  <si>
+    <t>Overview|This is Overview Text|http://www.tauck.com_Land Tours|/Tauck/Home| _Featured Tours</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/destinations/guest-favorites</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/destinations/whats-new</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/destinations/africa</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/destinations/antarctica</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Note : For all Navigate to node path please follow this instruction.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Static part :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "/sitecore/content/Tauck/Global/navigation/header/megamenu_automation"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Dynamic part :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for all menu, sub menus, and sub menus items convert caps to lower case and space to underscore so for an example : Whats New it should convert to "whats-new"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Final path :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Static path + Dynamic Path
+  /sitecore/content/Tauck/Global/navigation/header/megamenu_automation/whats-new</t>
+    </r>
+  </si>
+  <si>
+    <t>SubItemsComponentName</t>
+  </si>
+  <si>
+    <t>SubItemsRightClickInsert</t>
+  </si>
+  <si>
+    <t>SubItemsContent</t>
+  </si>
+  <si>
+    <t>SubItemsNavigateToNodePath</t>
+  </si>
+  <si>
+    <t>Overview|Links|Featured Tours</t>
+  </si>
+  <si>
+    <t>Menu Overview|Menu Links|Menu Featured Tours</t>
+  </si>
+  <si>
+    <t>Land Tours</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/tours-and-cruises</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/tours-and-cruises/land-tours</t>
+  </si>
+  <si>
+    <t>Tours and Cruises</t>
+  </si>
+  <si>
+    <t>Our People</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation/why-tauck</t>
+  </si>
+  <si>
+    <t>Card Menu Item</t>
+  </si>
+  <si>
+    <t>The Tauck Difference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +898,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -464,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -527,8 +1005,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -670,8 +1185,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -708,27 +1251,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -748,18 +1273,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -772,8 +1285,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -874,6 +1492,20 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
@@ -914,6 +1546,20 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,19 +1570,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Y"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1226,20 +1859,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showRuler="0" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1247,42 +1880,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>134</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>143</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1291,12 +1964,1511 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A7">
+      <formula1>$A$185:$A$186</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>$A$184:$A$185</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A3 A11 A15">
+      <formula1>$A$181:$A$182</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>$A$176:$A$177</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="24"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="24"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" s="24"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="24"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A14">
+      <formula1>$A$187:$A$188</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:E6"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19 A10">
+      <formula1>$A$201:$A$202</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1312,7 +3484,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1330,67 +3502,67 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>69</v>
+      <c r="F3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -1401,86 +3573,86 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>7</v>
+      <c r="C7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>64</v>
+      <c r="F8" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>106</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
@@ -1491,86 +3663,86 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="A11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>7</v>
+      <c r="C12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>51</v>
+      <c r="F13" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -1581,86 +3753,86 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>7</v>
+      <c r="C17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>53</v>
+      <c r="F18" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
@@ -1671,67 +3843,67 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="5"/>
       <c r="F21" s="12"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>7</v>
+      <c r="C22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1743,67 +3915,67 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+      <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>7</v>
+      <c r="C26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1815,484 +3987,484 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
+      <c r="A29" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>7</v>
+      <c r="C30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="A33" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>7</v>
+      <c r="C34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>76</v>
+      <c r="C35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="60" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>73</v>
+      <c r="C36" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="36"/>
+        <v>63</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="A38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>7</v>
+      <c r="C39" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>83</v>
+      <c r="C40" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="62" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="25"/>
+      <c r="C41" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="53"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
+      <c r="A43" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>7</v>
+      <c r="C44" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="F45" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="60" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>7</v>
+      <c r="C49" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="F50" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="60" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
+        <v>103</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
+      <c r="A53" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>7</v>
+      <c r="C54" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="F55" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="60" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
+      <c r="C56" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -2301,7 +4473,7 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2335,11 +4507,2305 @@
     <mergeCell ref="H8:H9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A4 A55:A56 A8:A9 A13:A14 A18:A19 A23 A27 A31 A35:A36 A40:A41 A45:A46 A50:A51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31 A40:A41 A45:A46 A3:A4 A27 A8:A9 A50:A51 A35:A36 A23 A13:A14 A18:A19 A55:A56">
       <formula1>$A$188:$A$189</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A20 A15:A16 A11 A3">
+      <formula1>$A$186:$A$187</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A11 A7 A15">
+      <formula1>$A$185:$A$186</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>$A$183:$A$184</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A7 A15 A19 A23">
+      <formula1>$A$184:$A$185</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>$A$175:$A$176</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11 A7 A15 A19 A27 A31 A35 A39">
+      <formula1>$A$176:$A$177</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A23">
+      <formula1>$A$180:$A$181</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>$A$184:$A$185</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A7">
+      <formula1>$A$185:$A$186</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>$A$184:$A$185</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A7">
+      <formula1>$A$185:$A$186</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A17">
+      <formula1>$A$186:$A$187</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -3041,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
@@ -3413,8 +3413,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>4</v>
+      <c r="A27" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
@@ -3430,8 +3430,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>4</v>
+      <c r="A28" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>3</v>
@@ -3454,7 +3454,7 @@
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19 A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19 A10 A27:A28">
       <formula1>$A$201:$A$202</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -1351,6 +1351,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1362,21 +1377,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3041,8 +3041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3195,8 +3195,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
+      <c r="A15" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
@@ -3224,8 +3224,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
+      <c r="A16" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -3253,8 +3253,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
+      <c r="A17" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -3282,8 +3282,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>4</v>
+      <c r="A18" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -3358,8 +3358,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>4</v>
+      <c r="A23" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
@@ -3454,7 +3454,7 @@
     <mergeCell ref="A21:C21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A19 A10 A27:A28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A27:A28 A15:A19 A23">
       <formula1>$A$201:$A$202</formula1>
     </dataValidation>
   </dataValidations>
@@ -3534,13 +3534,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="61" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3560,9 +3560,9 @@
       <c r="E4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
@@ -3624,13 +3624,13 @@
         <v>10</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="H8" s="61" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3650,9 +3650,9 @@
       <c r="E9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
@@ -3714,13 +3714,13 @@
         <v>15</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="61" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3740,9 +3740,9 @@
       <c r="E14" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
@@ -3804,13 +3804,13 @@
         <v>19</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="56" t="s">
+      <c r="H18" s="61" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3830,9 +3830,9 @@
       <c r="E19" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
@@ -4106,13 +4106,13 @@
         <v>61</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="58" t="s">
+      <c r="F35" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="54" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4132,9 +4132,9 @@
       <c r="E36" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="61"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="55"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="22"/>
@@ -4193,13 +4193,13 @@
       <c r="D40" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="H40" s="62" t="s">
+      <c r="H40" s="58" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4219,8 +4219,8 @@
       <c r="E41" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="53"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -4274,13 +4274,13 @@
       <c r="D45" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="54" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4300,9 +4300,9 @@
       <c r="E46" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
@@ -4355,13 +4355,13 @@
       <c r="D50" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="60" t="s">
+      <c r="F50" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="G50" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="60" t="s">
+      <c r="H50" s="54" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4381,9 +4381,9 @@
       <c r="E51" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
@@ -4436,13 +4436,13 @@
       <c r="D55" t="s">
         <v>92</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="G55" s="60" t="s">
+      <c r="G55" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="60" t="s">
+      <c r="H55" s="54" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4462,9 +4462,9 @@
       <c r="E56" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -4478,6 +4478,24 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="G55:G56"/>
     <mergeCell ref="H55:H56"/>
@@ -4487,24 +4505,6 @@
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="G50:G51"/>
     <mergeCell ref="H50:H51"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31 A40:A41 A45:A46 A3:A4 A27 A8:A9 A50:A51 A35:A36 A23 A13:A14 A18:A19 A55:A56">
@@ -6736,10 +6736,10 @@
       <c r="G15" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="54" t="s">
         <v>183</v>
       </c>
     </row>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,21 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="460" windowWidth="48180" windowHeight="26720" activeTab="1"/>
+    <workbookView xWindow="6480" yWindow="460" windowWidth="48180" windowHeight="26720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
     <sheet name="MegaMenu" sheetId="15" r:id="rId2"/>
-    <sheet name="Editorial" sheetId="5" r:id="rId3"/>
-    <sheet name="Editorial_OnlyWithTauck" sheetId="6" r:id="rId4"/>
-    <sheet name="Editorial_MediaCenter" sheetId="8" r:id="rId5"/>
-    <sheet name="Editorial_TheTuackStory" sheetId="9" r:id="rId6"/>
-    <sheet name="Editorial_WhyWeTravel" sheetId="10" r:id="rId7"/>
-    <sheet name="Editorial_PDF34" sheetId="12" r:id="rId8"/>
-    <sheet name="Editorial_PDF64" sheetId="13" r:id="rId9"/>
-    <sheet name="Editorial_PDF11" sheetId="11" r:id="rId10"/>
-    <sheet name="Editorial_PDF71" sheetId="14" r:id="rId11"/>
-    <sheet name="Template_Control" sheetId="7" r:id="rId12"/>
+    <sheet name="Home" sheetId="18" r:id="rId3"/>
+    <sheet name="Editorial" sheetId="5" r:id="rId4"/>
+    <sheet name="Editorial_OnlyWithTauck" sheetId="6" r:id="rId5"/>
+    <sheet name="Rough" sheetId="16" r:id="rId6"/>
+    <sheet name="Editorial_MediaCenter" sheetId="8" r:id="rId7"/>
+    <sheet name="Editorial_TheTuackStory" sheetId="9" r:id="rId8"/>
+    <sheet name="Editorial_WhyWeTravel" sheetId="10" r:id="rId9"/>
+    <sheet name="Editorial_PDF34" sheetId="12" r:id="rId10"/>
+    <sheet name="Editorial_PDF64" sheetId="13" r:id="rId11"/>
+    <sheet name="Editorial_PDF11" sheetId="11" r:id="rId12"/>
+    <sheet name="Editorial_PDF71" sheetId="14" r:id="rId13"/>
+    <sheet name="Template_Control" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="283">
   <si>
     <t>Runmode</t>
   </si>
@@ -130,30 +132,9 @@
     <t>Vertical and Horizontal featured content</t>
   </si>
   <si>
-    <t>Content_HeroSettings</t>
-  </si>
-  <si>
     <t>Tauck In The News|Media Center|Read the latest press releases from Tauck, and learn what's new from the world-leader in guided travel|Any description goes here</t>
   </si>
   <si>
-    <t>Content_HeaderMediaSettings</t>
-  </si>
-  <si>
-    <t>Content_SingleRichText</t>
-  </si>
-  <si>
-    <t>Content_AuthorProfile</t>
-  </si>
-  <si>
-    <t>Content_Quotes</t>
-  </si>
-  <si>
-    <t>Content_GridMedia</t>
-  </si>
-  <si>
-    <t>Content_FeaturedPageSelection</t>
-  </si>
-  <si>
     <t>main_editorial</t>
   </si>
   <si>
@@ -238,9 +219,6 @@
     <t>/sitecore/content/Tauck/Home/automation-editorial/media-carousel-cards</t>
   </si>
   <si>
-    <t>Content_CardSettings</t>
-  </si>
-  <si>
     <t>CategoryCardModule</t>
   </si>
   <si>
@@ -257,9 +235,6 @@
   </si>
   <si>
     <t>/sitecore/content/Tauck/Home/automation-editorial/category-card-module|/sitecore/content/Tauck/Home/automation-editorial/category-card-module/arthur-tauck|/sitecore/content/Tauck/Home/automation-editorial/category-card-module/daniel-w-mahar|/sitecore/content/Tauck/Home/automation-editorial/category-card-module/robin-tauck|/sitecore/content/Tauck/Home/automation-editorial/category-card-module/liz-tauck-walters</t>
-  </si>
-  <si>
-    <t>Content_CategoryCardInfo</t>
   </si>
   <si>
     <t>Arthur Tauck,Daniel W Mahar,Robin Tauck,Liz Tauck Walters</t>
@@ -315,9 +290,6 @@
     <t>FeaturedBrand</t>
   </si>
   <si>
-    <t>Content_FeaturedBrandInfo</t>
-  </si>
-  <si>
     <t>Winter is Coming|Eddard Stark|3 Tauck Tours|/Tauck/Editorial/Images/PonantLogo_The diversity and variation of things really made the tour something unexpectedly great|Jack Freeman|7 TAUCK TOURS|/Tauck/Editorial/Images/WindstarLogo</t>
   </si>
   <si>
@@ -337,9 +309,6 @@
   </si>
   <si>
     <t>/sitecore/content/Tauck/Home/automation-editorial/half-width-media-module</t>
-  </si>
-  <si>
-    <t>Content_Segment</t>
   </si>
   <si>
     <t>Rich Text Copy</t>
@@ -846,12 +815,238 @@
   <si>
     <t>The Tauck Difference</t>
   </si>
+  <si>
+    <t>Our People|/Tauck/Global/Hotel Highlights/Hotel Images/AlvearArtHotel|/Tauck/Home</t>
+  </si>
+  <si>
+    <t>The Tauck Difference|/Tauck/Global/Hotel Highlights/Hotel Images/HiltonBuenosAires|/Tauck/Home</t>
+  </si>
+  <si>
+    <t>MegaMenu_Automation</t>
+  </si>
+  <si>
+    <t>Insert from Template</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/navigation/header/megamenu_automation</t>
+  </si>
+  <si>
+    <t>Why Tauck</t>
+  </si>
+  <si>
+    <t>SubMenuName</t>
+  </si>
+  <si>
+    <t>MegaMenuName</t>
+  </si>
+  <si>
+    <t>EditorialTemplateName</t>
+  </si>
+  <si>
+    <t>TempalteName</t>
+  </si>
+  <si>
+    <t>Editorial_Thru_Automation</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/author-profiles</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/editorial-flex-cards</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/category-card-module</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/text-copy-folder</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/editorial-quotes</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/grid-media-folder</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/half-width-media-module</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/featured-brand-module</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Home/editorial_thru_automation/media-carousel-cards</t>
+  </si>
+  <si>
+    <t>Home_Thru_Automation</t>
+  </si>
+  <si>
+    <t>TemplateName</t>
+  </si>
+  <si>
+    <t>HeroSettings</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/home_thru_automation</t>
+  </si>
+  <si>
+    <t>HomeTemplateName</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where would you like to go?|See the world in a way you never thought possible| | | | | | | |/Tauck/Editorial/Images/taj/india2| |4150229195001|Tuscany, Italy|This is Caption Description| </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Here for Content I have covered input, RTE input and textArea input but not Tree structure what I mean here is If you click on "Edit" link which will open another window with tree structure to select from Eg. Popular Terms  - Edit under Home - Hero settings. 
+Here is how content test data works. You need to cover all content fields, for those fields which you don't want to input just leave it blank with empty space. 
+Example : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Where would you like to go?|See the world in a way you never thought possible| | | | | | | |/Tauck/Editorial/Images/taj/india2| |4150229195001|Tuscany, Italy|This is Caption Description| </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Empty fields in above string are for Home - Hero settings fields are
+- Partnership/Sub Category Subtitle:
+- Display Bucket List Selection - Only applicable to product page (This is checkbox)
+- Description - Only applicable on Collection pages:
+- Collection Page Dropdown links - Only used on root level Collection pages like Europe, Africa:
+- Type Tooltip Copy - Only applicable on Product pages:
+- Type Tooltip Title - Only applicable on Product pages:
+- Attractions
+- Popular Terms - Only available on the home page:
+- Direction - Tour direction Northbound Westbound Southbound Eastbound:</t>
+    </r>
+  </si>
+  <si>
+    <t>TravellingWithTauck</t>
+  </si>
+  <si>
+    <t>Ways To Travel|Traveling With Tauck|There's a Tauck style of traveling for everyone... small ship cruising... river cruising... land journeys... small group trips... Tauck Events... Find the style of travel that's best for you!</t>
+  </si>
+  <si>
+    <t>TauckExperienceComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHY TAUCK|The Tauck Experience|The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities.|Learn More| </t>
+  </si>
+  <si>
+    <t>A few of our guests' favorite journeys|The Blue Danube|Our 12-day river cruise is Tauck's #1 worldwide best-selling journey.|/Tauck/Editorial/Images/taj/india1|/Tauck/Home|Classic Italy|Venice... Florence... Rome... the Amalfi Coast... Tuscany... the best of Italy.|/Tauck/Editorial/Images/taj/india2|/Tauck/Home|Tanzania: A Grand Family Safari|View Africa's "Big Five" on daily game drives in Serengeti and Tarangire national parks.|/Tauck/Editorial/Images/taj/taj|/Tauck/Home|America's Canyonlands|Stay in the heart of Grand Canyon, Zion, and Bryce Canyon national parks.|/Tauck/Editorial/Images/taj/us3|/Tauck/Home</t>
+  </si>
+  <si>
+    <t>TravellingWithTauckPortraitCards</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global</t>
+  </si>
+  <si>
+    <t>CardsName</t>
+  </si>
+  <si>
+    <t>Traveling With Tauck Cards Folder</t>
+  </si>
+  <si>
+    <t>European River Cruising</t>
+  </si>
+  <si>
+    <t>Content_PortraitTripImageCard</t>
+  </si>
+  <si>
+    <t>Content_PortraitTripImageCardHoover</t>
+  </si>
+  <si>
+    <t>Small Ship Cruising|CardSubtitle|/Tauck/Editorial/Images/taj/Us1|/Tauck/Home/cruises/japan</t>
+  </si>
+  <si>
+    <t>Cultural Journeys and Expeditions|A collection of treasures...|Navigate the world like never before.. Itineraries are designed to delight our guests with the best of land by sea... and sailed on ships handpicked for the destination. Sail to some of the world’s most beautiful ports of call, seeking out hidden harbors and island hideaways where big ships don’t go... explore the places you’ve always wanted to see on a choice of included shore excursions that promise the extraordinary... With Tauck, small is big... and the best way to make your cruise so much more than you ever expected.</t>
+  </si>
+  <si>
+    <t>TravellingWithTauckPortraitCardsFolder</t>
+  </si>
+  <si>
+    <t>FolderName</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/traveling-with-tauck-cards-folder</t>
+  </si>
+  <si>
+    <t>Small Ship Cruising</t>
+  </si>
+  <si>
+    <t>Small Ship Cruising|CardSubtitle|/Tauck/Editorial/Images/taj/Us2|/Tauck/Home/cruises/japan</t>
+  </si>
+  <si>
+    <t>LeadGenerationFolder</t>
+  </si>
+  <si>
+    <t>Lead Generation Thru Automation</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/lead-generation</t>
+  </si>
+  <si>
+    <t>LeadGenerationCards</t>
+  </si>
+  <si>
+    <t>/sitecore/content/Tauck/Global/lead-generation/lead-generation-thru-automation</t>
+  </si>
+  <si>
+    <t>Lead Generation CTA</t>
+  </si>
+  <si>
+    <t>/Tauck/Global/Lead Generation/Images/cta-brochure|Click for Brochure|Test Brochure 1</t>
+  </si>
+  <si>
+    <t>/Tauck/Global/Lead Generation/Images/cta-notebook|Call to eBook|Test Brochure 2</t>
+  </si>
+  <si>
+    <t>Call To Book_Right</t>
+  </si>
+  <si>
+    <t>Request a brochure_Left</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,8 +1110,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,6 +1139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1250,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1213,8 +1420,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1251,7 +1488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1327,29 +1563,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1381,6 +1638,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,8 +1656,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1506,6 +1780,21 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
@@ -1560,6 +1849,21 @@
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1859,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1872,7 +2176,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1888,7 +2192,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1896,7 +2200,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -1904,7 +2208,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
@@ -1912,7 +2216,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -1920,7 +2224,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1928,7 +2232,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -1936,7 +2240,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
@@ -1944,17 +2248,25 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1965,6 +2277,513 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>$A$184:$A$185</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A7">
+      <formula1>$A$185:$A$186</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
+      <formula1>$A$184:$A$185</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A7">
+      <formula1>$A$185:$A$186</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A17">
+      <formula1>$A$186:$A$187</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -1986,21 +2805,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2011,41 +2830,41 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
@@ -2056,61 +2875,61 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
@@ -2124,22 +2943,22 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>170</v>
+        <v>87</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>159</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
@@ -2177,11 +2996,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2190,26 +3009,26 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>120</v>
+      <c r="C2" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2222,19 +3041,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -2251,11 +3070,11 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2264,26 +3083,26 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -2296,19 +3115,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -2325,11 +3144,11 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2338,14 +3157,14 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>111</v>
+      <c r="C10" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2362,7 +3181,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2383,45 +3202,45 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -2435,64 +3254,64 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>165</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
@@ -2513,13 +3332,13 @@
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>189</v>
+        <v>43</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2535,12 +3354,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView showRuler="0" topLeftCell="A53" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2550,17 +3369,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>113</v>
+      <c r="B2" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2608,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2616,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -2632,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2640,7 +3459,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -2648,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -2660,17 +3479,17 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="24"/>
+      <c r="A16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="23"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>113</v>
+      <c r="B17" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -2678,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -2686,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2702,21 +3521,21 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="24"/>
+      <c r="A23" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="23"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>113</v>
+      <c r="B24" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -2724,7 +3543,7 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -2732,7 +3551,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -2744,17 +3563,17 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="24"/>
+      <c r="A29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="23"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>113</v>
+      <c r="B30" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -2762,7 +3581,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -2770,7 +3589,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -2786,7 +3605,7 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -2794,21 +3613,21 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B37" s="24"/>
+      <c r="A37" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="23"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>113</v>
+      <c r="B38" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -2816,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -2824,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -2864,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2880,21 +3699,21 @@
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="24"/>
+      <c r="A49" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="23"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>113</v>
+      <c r="B50" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2902,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -2914,17 +3733,17 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B54" s="24"/>
+      <c r="A54" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="23"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>113</v>
+      <c r="B55" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -2932,7 +3751,7 @@
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -2944,17 +3763,17 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="B59" s="24"/>
+      <c r="A59" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="23"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>113</v>
+      <c r="B60" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -2962,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -2978,21 +3797,21 @@
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="24"/>
+      <c r="A65" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" s="23"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>113</v>
+      <c r="B66" s="24" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -3000,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -3008,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3039,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3050,86 +3869,83 @@
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="35.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
     <col min="9" max="9" width="31.1640625" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="A1" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="A8" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="48" t="s">
-        <v>209</v>
+      <c r="E9" s="24" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -3140,322 +3956,388 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="9" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="48"/>
+    </row>
+    <row r="24" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="H28" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="45" t="s">
+    </row>
+    <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="50"/>
+    </row>
+    <row r="30" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H16" s="45" t="s">
+      <c r="F30" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="I16" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="I30" s="52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:E6"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A27:A28 A15:A19 A23">
-      <formula1>$A$201:$A$202</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A20">
+      <formula1>$A$196:$A$197</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3465,10 +4347,937 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A44" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="77"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="77"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="G48" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+    </row>
+    <row r="52" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+    </row>
+    <row r="57" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:J18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I193"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3480,1035 +5289,1184 @@
     <col min="6" max="6" width="40.83203125" customWidth="1"/>
     <col min="7" max="7" width="39.5" customWidth="1"/>
     <col min="8" max="8" width="49.33203125" customWidth="1"/>
+    <col min="9" max="9" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H22" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="61" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="23" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="66"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="3"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="5"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
+      <c r="E26" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="I27" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="5"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>37</v>
+      <c r="E30" s="24" t="s">
+        <v>195</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="61"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A44" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="58"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G35" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="B49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G49" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="55"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
+      <c r="B50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B53" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+      <c r="E53" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="B54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="53"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="23" t="s">
+      <c r="B55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C58" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D58" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="E58" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" t="s">
-        <v>76</v>
-      </c>
-      <c r="F45" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="H45" s="54" t="s">
+      <c r="B59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" s="60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="B60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
+  <mergeCells count="28">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A31 A40:A41 A45:A46 A3:A4 A27 A8:A9 A50:A51 A35:A36 A23 A13:A14 A18:A19 A55:A56">
-      <formula1>$A$188:$A$189</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">
+      <formula1>$A$192:$A$193</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4516,12 +6474,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4538,11 +6496,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -4551,26 +6509,26 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
-        <v>120</v>
+      <c r="C2" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -4583,19 +6541,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -4612,11 +6570,11 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4625,26 +6583,26 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4657,19 +6615,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4686,11 +6644,11 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4699,14 +6657,14 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>111</v>
+      <c r="C10" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4723,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4744,45 +6702,45 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="A13" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -4793,25 +6751,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="H15" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="63" t="s">
-        <v>128</v>
+      <c r="G15" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -4822,20 +6780,20 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+        <v>84</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -4849,45 +6807,45 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -4901,22 +6859,22 @@
         <v>10</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>131</v>
+        <v>87</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>120</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4934,12 +6892,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A27:F29"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A21" zoomScale="239" zoomScaleNormal="239" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A29">
+      <formula1>$A$201:$A$202</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4956,136 +6992,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>2</v>
+      <c r="A11" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>3</v>
@@ -5094,64 +7130,64 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
@@ -5161,26 +7197,26 @@
       <c r="B15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>142</v>
+      <c r="C15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5193,7 +7229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -5215,21 +7251,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
@@ -5240,15 +7276,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5257,26 +7293,26 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5289,19 +7325,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -5318,11 +7354,11 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5331,26 +7367,26 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>120</v>
+      <c r="C10" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5363,63 +7399,63 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -5433,64 +7469,64 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
@@ -5500,68 +7536,68 @@
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>150</v>
+      <c r="C19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -5571,26 +7607,26 @@
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>151</v>
+      <c r="C23" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5606,7 +7642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
@@ -5627,21 +7663,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="A1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
+      <c r="C2" s="24" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="91" customHeight="1" x14ac:dyDescent="0.2">
@@ -5652,15 +7688,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="A5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -5669,26 +7705,26 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
+      <c r="C6" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -5701,19 +7737,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -5730,11 +7766,11 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5743,26 +7779,26 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>120</v>
+      <c r="C10" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -5775,63 +7811,63 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.2">
@@ -5845,64 +7881,64 @@
         <v>10</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>137</v>
+        <v>87</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.2">
@@ -5912,26 +7948,26 @@
       <c r="B19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>157</v>
+      <c r="C19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5954,8 +7990,8 @@
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>120</v>
+      <c r="C22" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -5964,16 +8000,16 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -5993,58 +8029,58 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>159</v>
+      <c r="H23" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6063,59 +8099,59 @@
       <c r="E27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>160</v>
+      <c r="F27" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.2">
@@ -6132,61 +8168,61 @@
         <v>20</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="35" t="s">
-        <v>161</v>
+        <v>48</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="25" t="s">
+      <c r="C34" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
@@ -6196,68 +8232,68 @@
       <c r="B35" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="35" t="s">
-        <v>162</v>
+      <c r="C35" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="25" t="s">
+      <c r="C38" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -6278,13 +8314,13 @@
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="I39" s="36" t="s">
-        <v>163</v>
+        <v>43</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6301,511 +8337,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>$A$184:$A$185</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A7">
-      <formula1>$A$185:$A$186</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-    </row>
-    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A11">
-      <formula1>$A$184:$A$185</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 A7">
-      <formula1>$A$185:$A$186</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A15:A17">
-      <formula1>$A$186:$A$187</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="460" windowWidth="48180" windowHeight="26720" activeTab="2"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="48180" windowHeight="26720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -1599,6 +1599,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1607,6 +1615,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1622,18 +1642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1656,14 +1664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -2166,7 +2166,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2258,16 +2258,16 @@
       <c r="A11" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
+      <c r="B11" s="53" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>2</v>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2706,13 +2706,13 @@
       <c r="F15" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="H15" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I15" s="68" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2735,9 +2735,9 @@
       <c r="F16" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -2758,9 +2758,9 @@
       <c r="F17" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3860,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3879,55 +3879,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
@@ -3966,11 +3966,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="61" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -4008,8 +4008,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
+      <c r="A15" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
@@ -4029,8 +4029,8 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
+      <c r="A16" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -4058,8 +4058,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
+      <c r="A17" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -4087,8 +4087,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
+      <c r="A18" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -4116,8 +4116,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
+      <c r="A19" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>3</v>
@@ -4180,8 +4180,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
+      <c r="A23" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
@@ -4198,8 +4198,8 @@
       <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
+      <c r="A24" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>3</v>
@@ -4218,8 +4218,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>4</v>
+      <c r="A25" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>3</v>
@@ -4280,8 +4280,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
+      <c r="A29" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>3</v>
@@ -4301,8 +4301,8 @@
       <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
+      <c r="A30" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>3</v>
@@ -4336,7 +4336,7 @@
     <mergeCell ref="A1:E6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A15:A20 A23:A25 A29:A30">
       <formula1>$A$196:$A$197</formula1>
     </dataValidation>
   </dataValidations>
@@ -4349,7 +4349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A44" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A44" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -4366,229 +4366,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="5"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -4650,11 +4650,11 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="5"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -4716,11 +4716,11 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="61" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="5"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -4782,11 +4782,11 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="5"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -4848,11 +4848,11 @@
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="5"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -4902,10 +4902,10 @@
       <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="77"/>
+      <c r="A39" s="58"/>
       <c r="B39" s="29"/>
       <c r="C39" s="55"/>
-      <c r="D39" s="78"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
@@ -4914,11 +4914,11 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="61" t="s">
         <v>268</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="13"/>
@@ -4972,10 +4972,10 @@
       <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="77"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="29"/>
       <c r="C43" s="55"/>
-      <c r="D43" s="78"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -4996,16 +4996,16 @@
       <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="79"/>
+      <c r="H45" s="60"/>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
     </row>
@@ -5042,7 +5042,7 @@
       <c r="B47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="57" t="s">
         <v>270</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -5068,7 +5068,7 @@
       <c r="B48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="57" t="s">
         <v>270</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -5100,11 +5100,11 @@
       <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="13"/>
@@ -5170,11 +5170,11 @@
       <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="57" t="s">
+      <c r="A54" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -5214,7 +5214,7 @@
       <c r="B56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="76" t="s">
+      <c r="C56" s="57" t="s">
         <v>277</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -5238,7 +5238,7 @@
       <c r="B57" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="57" t="s">
         <v>277</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -5257,16 +5257,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:J18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:J18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5293,11 +5293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5387,13 +5387,13 @@
         <v>236</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="66" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5416,9 +5416,9 @@
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -5487,13 +5487,13 @@
         <v>236</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="66" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5516,9 +5516,9 @@
       <c r="F13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -5587,13 +5587,13 @@
         <v>236</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="67" t="s">
+      <c r="H17" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="66" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5616,9 +5616,9 @@
       <c r="F18" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -5687,13 +5687,13 @@
         <v>236</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="65" t="s">
+      <c r="G22" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="67" t="s">
+      <c r="I22" s="66" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5716,9 +5716,9 @@
       <c r="F23" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="66"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -6020,13 +6020,13 @@
         <v>236</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="62" t="s">
+      <c r="G39" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="60" t="s">
+      <c r="I39" s="68" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6049,9 +6049,9 @@
       <c r="F40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="61"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="69"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
@@ -6117,13 +6117,13 @@
       <c r="E44" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G44" s="60" t="s">
+      <c r="G44" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="60" t="s">
+      <c r="H44" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="64" t="s">
+      <c r="I44" s="72" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6146,9 +6146,9 @@
       <c r="F45" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="58"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
@@ -6208,13 +6208,13 @@
       <c r="E49" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G49" s="60" t="s">
+      <c r="G49" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I49" s="68" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6237,9 +6237,9 @@
       <c r="F50" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
@@ -6299,13 +6299,13 @@
       <c r="E54" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G54" s="60" t="s">
+      <c r="G54" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H54" s="60" t="s">
+      <c r="H54" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="60" t="s">
+      <c r="I54" s="68" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6328,9 +6328,9 @@
       <c r="F55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
@@ -6390,13 +6390,13 @@
       <c r="E59" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G59" s="60" t="s">
+      <c r="G59" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="60" t="s">
+      <c r="H59" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="60" t="s">
+      <c r="I59" s="68" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6419,9 +6419,9 @@
       <c r="F60" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -6435,18 +6435,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
@@ -6463,6 +6451,18 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">
@@ -6762,13 +6762,13 @@
       <c r="F15" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="73" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6791,9 +6791,9 @@
       <c r="F16" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
@@ -6908,11 +6908,11 @@
   </cols>
   <sheetData>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="75"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -816,9 +816,6 @@
     <t>The Tauck Difference</t>
   </si>
   <si>
-    <t>Our People|/Tauck/Global/Hotel Highlights/Hotel Images/AlvearArtHotel|/Tauck/Home</t>
-  </si>
-  <si>
     <t>The Tauck Difference|/Tauck/Global/Hotel Highlights/Hotel Images/HiltonBuenosAires|/Tauck/Home</t>
   </si>
   <si>
@@ -1040,6 +1037,9 @@
   </si>
   <si>
     <t>Request a brochure_Left</t>
+  </si>
+  <si>
+    <t>Our People changing here|/Tauck/Global/Hotel Highlights/Hotel Images/AlvearArtHotel|/Tauck/Home</t>
   </si>
 </sst>
 </file>
@@ -1616,18 +1616,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1642,6 +1630,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2166,7 +2166,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
@@ -2709,10 +2709,10 @@
       <c r="G15" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="I15" s="68" t="s">
+      <c r="I15" s="64" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3860,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>11</v>
@@ -3956,13 +3956,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>11</v>
@@ -4008,8 +4008,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>2</v>
+      <c r="A15" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
@@ -4018,10 +4018,10 @@
         <v>183</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -4029,8 +4029,8 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>2</v>
+      <c r="A16" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -4058,8 +4058,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
+      <c r="A17" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -4087,8 +4087,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>2</v>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -4116,8 +4116,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>2</v>
+      <c r="A19" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>3</v>
@@ -4167,7 +4167,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>195</v>
@@ -4180,26 +4180,26 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>2</v>
+      <c r="A23" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>2</v>
+      <c r="A24" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>3</v>
@@ -4214,7 +4214,7 @@
         <v>222</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -4234,7 +4234,7 @@
         <v>222</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -4258,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>195</v>
@@ -4280,8 +4280,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>2</v>
+      <c r="A29" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>3</v>
@@ -4290,10 +4290,10 @@
         <v>219</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
@@ -4301,8 +4301,8 @@
       <c r="I29" s="50"/>
     </row>
     <row r="30" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>2</v>
+      <c r="A30" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>3</v>
@@ -4336,7 +4336,7 @@
     <mergeCell ref="A1:E6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A15:A20 A23:A25 A29:A30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10 A15:A20 A29:A30 A23:A25">
       <formula1>$A$196:$A$197</formula1>
     </dataValidation>
   </dataValidations>
@@ -4367,7 +4367,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>11</v>
@@ -4625,10 +4625,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -4691,10 +4691,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="54" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
@@ -4823,10 +4823,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -4889,10 +4889,10 @@
         <v>3</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -4941,7 +4941,7 @@
         <v>11</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -4957,13 +4957,13 @@
         <v>3</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D42" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
@@ -5023,13 +5023,13 @@
         <v>11</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F46" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="G46" s="32" t="s">
         <v>264</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>265</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -5043,19 +5043,19 @@
         <v>3</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F47" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="G47" s="48" t="s">
         <v>266</v>
-      </c>
-      <c r="G47" s="48" t="s">
-        <v>267</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
@@ -5069,19 +5069,19 @@
         <v>3</v>
       </c>
       <c r="C48" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="F48" s="54" t="s">
-        <v>272</v>
-      </c>
       <c r="G48" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" s="61"/>
       <c r="C50" s="61"/>
@@ -5127,7 +5127,7 @@
         <v>11</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -5143,13 +5143,13 @@
         <v>3</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B54" s="61"/>
       <c r="C54" s="61"/>
@@ -5197,7 +5197,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>108</v>
@@ -5215,16 +5215,16 @@
         <v>3</v>
       </c>
       <c r="C56" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="E56" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56" s="54" t="s">
         <v>278</v>
-      </c>
-      <c r="E56" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="F56" s="54" t="s">
-        <v>279</v>
       </c>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
@@ -5239,16 +5239,16 @@
         <v>3</v>
       </c>
       <c r="C57" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="E57" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
@@ -5257,16 +5257,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:J18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5294,7 +5294,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -5308,7 +5308,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>11</v>
@@ -5322,7 +5322,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -5384,16 +5384,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="71" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5411,14 +5411,14 @@
         <v>17</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -5484,16 +5484,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="66" t="s">
+      <c r="H12" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="71" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5511,14 +5511,14 @@
         <v>94</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -5584,16 +5584,16 @@
         <v>15</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="64" t="s">
+      <c r="G17" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="71" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5611,14 +5611,14 @@
         <v>12</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -5684,16 +5684,16 @@
         <v>19</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="64" t="s">
+      <c r="G22" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="I22" s="71" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5711,14 +5711,14 @@
         <v>48</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F23" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -5784,7 +5784,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>89</v>
@@ -5863,7 +5863,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>30</v>
@@ -5942,7 +5942,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="10" t="s">
@@ -6017,16 +6017,16 @@
         <v>54</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="70" t="s">
+      <c r="G39" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="70" t="s">
+      <c r="H39" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="68" t="s">
+      <c r="I39" s="64" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6044,14 +6044,14 @@
         <v>56</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="69"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="65"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
@@ -6115,15 +6115,15 @@
         <v>60</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G44" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G44" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="68" t="s">
+      <c r="H44" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="68" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6141,13 +6141,13 @@
         <v>65</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
       <c r="I45" s="62"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -6206,15 +6206,15 @@
         <v>67</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G49" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="68" t="s">
+      <c r="H49" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="68" t="s">
+      <c r="I49" s="64" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6232,14 +6232,14 @@
         <v>69</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F50" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
@@ -6297,15 +6297,15 @@
         <v>74</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="H54" s="68" t="s">
+      <c r="H54" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="68" t="s">
+      <c r="I54" s="64" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6323,14 +6323,14 @@
         <v>76</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
@@ -6388,15 +6388,15 @@
         <v>82</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G59" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="G59" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="68" t="s">
+      <c r="H59" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="68" t="s">
+      <c r="I59" s="64" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6414,14 +6414,14 @@
         <v>84</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -6435,6 +6435,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
@@ -6451,18 +6463,6 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -3860,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4180,8 +4180,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
+      <c r="A23" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>3</v>
@@ -4198,8 +4198,8 @@
       <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
+      <c r="A24" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>3</v>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="13"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -1751,6 +1751,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1766,14 +1774,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1787,8 +1804,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1799,26 +1819,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -2325,7 +2325,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2377,16 +2377,16 @@
       <c r="A6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>2</v>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="48" t="s">
-        <v>2</v>
+      <c r="B7" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2417,8 +2417,8 @@
       <c r="A11" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
+      <c r="B11" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2511,7 +2511,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2556,7 +2556,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2621,7 +2621,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2639,18 +2639,18 @@
       <c r="F15" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="71" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2665,12 +2665,12 @@
       <c r="E16" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -2715,7 +2715,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2733,18 +2733,18 @@
       <c r="F20" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="G20" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="76" t="s">
+      <c r="H20" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="73" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2762,12 +2762,12 @@
       <c r="F21" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2785,12 +2785,12 @@
       <c r="F22" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2808,9 +2808,9 @@
       <c r="F23" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G29" s="60"/>
@@ -2872,7 +2872,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2924,7 +2924,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2998,7 +2998,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -3064,7 +3064,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -3134,7 +3134,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3203,7 +3203,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3221,18 +3221,18 @@
       <c r="F23" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="G23" s="81" t="s">
+      <c r="G23" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="I23" s="71" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3247,12 +3247,12 @@
       <c r="E24" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3285,11 +3285,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3379,13 +3379,13 @@
         <v>196</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="72" t="s">
+      <c r="G7" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="81" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3408,9 +3408,9 @@
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -3479,13 +3479,13 @@
         <v>196</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3508,9 +3508,9 @@
       <c r="F13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -3579,13 +3579,13 @@
         <v>196</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="74" t="s">
+      <c r="H17" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3608,9 +3608,9 @@
       <c r="F18" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -3679,13 +3679,13 @@
         <v>196</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="81" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3708,9 +3708,9 @@
       <c r="F23" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -4012,13 +4012,13 @@
         <v>196</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="69" t="s">
+      <c r="G39" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="67" t="s">
+      <c r="I39" s="71" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4041,9 +4041,9 @@
       <c r="F40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="68"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="72"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
@@ -4109,13 +4109,13 @@
       <c r="E44" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G44" s="67" t="s">
+      <c r="G44" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="67" t="s">
+      <c r="H44" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="71" t="s">
+      <c r="I44" s="76" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4138,9 +4138,9 @@
       <c r="F45" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="68"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="65"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="69"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
@@ -4200,13 +4200,13 @@
       <c r="E49" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="67" t="s">
+      <c r="G49" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="H49" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="67" t="s">
+      <c r="I49" s="71" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4229,9 +4229,9 @@
       <c r="F50" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
@@ -4291,13 +4291,13 @@
       <c r="E54" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G54" s="67" t="s">
+      <c r="G54" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="H54" s="67" t="s">
+      <c r="H54" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="67" t="s">
+      <c r="I54" s="71" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4320,9 +4320,9 @@
       <c r="F55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
@@ -4382,13 +4382,13 @@
       <c r="E59" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="67" t="s">
+      <c r="G59" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="67" t="s">
+      <c r="H59" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="67" t="s">
+      <c r="I59" s="71" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4411,24 +4411,12 @@
       <c r="F60" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
@@ -4445,6 +4433,18 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">
@@ -4472,11 +4472,11 @@
   </cols>
   <sheetData>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -4538,7 +4538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
@@ -5046,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5065,55 +5065,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
@@ -5152,11 +5152,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -5552,229 +5552,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="5"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5836,11 +5836,11 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="5"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -5902,11 +5902,11 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="5"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5968,11 +5968,11 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="68" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="5"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6034,11 +6034,11 @@
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="5"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -6100,11 +6100,11 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="13"/>
@@ -6182,11 +6182,11 @@
       <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -6286,11 +6286,11 @@
       <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="64" t="s">
+      <c r="A50" s="68" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="64"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="13"/>
@@ -6356,11 +6356,11 @@
       <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -6443,16 +6443,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:J18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:J18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6502,7 +6502,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -6534,7 +6534,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -6579,7 +6579,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -6644,7 +6644,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -6715,7 +6715,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -6733,18 +6733,18 @@
       <c r="F20" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="67" t="s">
+      <c r="G20" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="71" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -6762,9 +6762,9 @@
       <c r="F21" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -6785,9 +6785,9 @@
       <c r="F22" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6848,7 +6848,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -6900,7 +6900,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -6974,7 +6974,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -7040,7 +7040,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -7110,7 +7110,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -7128,18 +7128,18 @@
       <c r="F19" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="76" t="s">
+      <c r="H19" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="73" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -7157,12 +7157,12 @@
       <c r="F20" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -7180,12 +7180,12 @@
       <c r="F21" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -7203,9 +7203,9 @@
       <c r="F22" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -7279,18 +7279,18 @@
       <c r="F26" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="G26" s="81" t="s">
+      <c r="G26" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="71" t="s">
+      <c r="H26" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="67" t="s">
+      <c r="I26" s="71" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -7308,9 +7308,9 @@
       <c r="F27" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="80"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7369,7 +7369,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7401,7 +7401,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -7450,7 +7450,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -7524,7 +7524,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -7591,7 +7591,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -7662,7 +7662,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -7680,18 +7680,18 @@
       <c r="F23" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="67" t="s">
+      <c r="H23" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="67" t="s">
+      <c r="I23" s="71" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7709,12 +7709,12 @@
       <c r="F24" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -7732,12 +7732,12 @@
       <c r="F25" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -7755,9 +7755,9 @@
       <c r="F26" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
@@ -7802,7 +7802,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -7820,18 +7820,18 @@
       <c r="F30" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="G30" s="67" t="s">
+      <c r="G30" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="67" t="s">
+      <c r="I30" s="71" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -7846,15 +7846,15 @@
       <c r="E31" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="F31" s="85" t="s">
+      <c r="F31" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -7872,9 +7872,9 @@
       <c r="F32" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7932,7 +7932,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7964,7 +7964,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -8013,7 +8013,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -8087,7 +8087,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -8154,7 +8154,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -8217,7 +8217,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -8282,7 +8282,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -8300,18 +8300,18 @@
       <c r="F27" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="67" t="s">
+      <c r="I27" s="71" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -8326,12 +8326,12 @@
       <c r="E28" t="s">
         <v>313</v>
       </c>
-      <c r="F28" s="85" t="s">
+      <c r="F28" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
@@ -8376,7 +8376,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -8394,18 +8394,18 @@
       <c r="F32" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="67" t="s">
+      <c r="I32" s="71" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -8423,12 +8423,12 @@
       <c r="F33" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -8446,12 +8446,12 @@
       <c r="F34" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87" t="s">
+      <c r="A35" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -8469,9 +8469,9 @@
       <c r="F35" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
@@ -8516,7 +8516,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="87" t="s">
+      <c r="A39" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -8534,18 +8534,18 @@
       <c r="F39" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="G39" s="67" t="s">
+      <c r="G39" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="67" t="s">
+      <c r="H39" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="67" t="s">
+      <c r="I39" s="71" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -8560,15 +8560,15 @@
       <c r="E40" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -8586,9 +8586,9 @@
       <c r="F41" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
@@ -8633,7 +8633,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -8702,7 +8702,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A49" s="87" t="s">
+      <c r="A49" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -8720,18 +8720,18 @@
       <c r="F49" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="G49" s="67" t="s">
+      <c r="G49" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="H49" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="67" t="s">
+      <c r="I49" s="71" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A50" s="87" t="s">
+      <c r="A50" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -8746,15 +8746,15 @@
       <c r="E50" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="F50" s="85" t="s">
+      <c r="F50" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
     </row>
     <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A51" s="87" t="s">
+      <c r="A51" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -8772,9 +8772,9 @@
       <c r="F51" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8826,7 +8826,7 @@
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -8859,7 +8859,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -8891,7 +8891,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -8936,7 +8936,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="67" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -9001,7 +9001,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="87" t="s">
+      <c r="A20" s="67" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -9019,18 +9019,18 @@
       <c r="F20" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="G20" s="81" t="s">
+      <c r="G20" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="71" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -9048,9 +9048,9 @@
       <c r="F21" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="80"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9111,7 +9111,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -9143,7 +9143,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -9188,7 +9188,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -9253,7 +9253,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -9271,18 +9271,18 @@
       <c r="F15" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="G15" s="81" t="s">
+      <c r="G15" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="71" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -9297,15 +9297,15 @@
       <c r="E16" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="F16" s="84" t="s">
+      <c r="F16" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -9320,15 +9320,15 @@
       <c r="E17" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="84" t="s">
+      <c r="F17" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="67" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -9346,9 +9346,9 @@
       <c r="F18" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="1"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -2324,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5046,7 +5046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -1792,6 +1792,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1803,12 +1809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2324,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2385,8 +2385,8 @@
       <c r="A7" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>4</v>
+      <c r="B7" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2417,8 +2417,8 @@
       <c r="A11" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>2</v>
+      <c r="B11" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3379,13 +3379,13 @@
         <v>196</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="83" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3408,9 +3408,9 @@
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -3479,13 +3479,13 @@
         <v>196</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="83" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3508,9 +3508,9 @@
       <c r="F13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -3579,13 +3579,13 @@
         <v>196</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="83" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3608,9 +3608,9 @@
       <c r="F18" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -3679,13 +3679,13 @@
         <v>196</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="83" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3708,9 +3708,9 @@
       <c r="F23" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -4012,10 +4012,10 @@
         <v>196</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="79" t="s">
         <v>31</v>
       </c>
       <c r="I39" s="71" t="s">
@@ -4041,8 +4041,8 @@
       <c r="F40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="72"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -4417,6 +4417,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
@@ -4433,18 +4445,6 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">
@@ -6443,16 +6443,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:J18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8799,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>3</v>
@@ -8937,7 +8937,7 @@
     </row>
     <row r="15" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>3</v>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -1792,12 +1792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1809,6 +1803,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3379,13 +3379,13 @@
         <v>196</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="83" t="s">
+      <c r="I7" s="81" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3408,9 +3408,9 @@
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -3479,13 +3479,13 @@
         <v>196</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="83" t="s">
+      <c r="I12" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3508,9 +3508,9 @@
       <c r="F13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -3579,13 +3579,13 @@
         <v>196</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="81" t="s">
+      <c r="G17" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="83" t="s">
+      <c r="I17" s="81" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3608,9 +3608,9 @@
       <c r="F18" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -3679,13 +3679,13 @@
         <v>196</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="81" t="s">
+      <c r="G22" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="83" t="s">
+      <c r="H22" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="83" t="s">
+      <c r="I22" s="81" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3708,9 +3708,9 @@
       <c r="F23" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -4012,10 +4012,10 @@
         <v>196</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="79" t="s">
+      <c r="G39" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="79" t="s">
+      <c r="H39" s="83" t="s">
         <v>31</v>
       </c>
       <c r="I39" s="71" t="s">
@@ -4041,8 +4041,8 @@
       <c r="F40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
       <c r="I40" s="72"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -4417,18 +4417,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
@@ -4445,6 +4433,18 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">
@@ -4538,8 +4538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A31" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4898,15 +4898,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>2</v>
+      <c r="A52" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -5034,7 +5034,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25 A27">
       <formula1>$A$196:$A$197</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A39:A44 A46:A47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A39:A44 A46:A47 A52">
       <formula1>$A$192:$A$193</formula1>
     </dataValidation>
   </dataValidations>
@@ -6443,16 +6443,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:J18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:J18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8800,7 +8800,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="21" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="7"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -2324,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2393,8 +2393,8 @@
       <c r="A8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
+      <c r="B8" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -8799,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="328">
   <si>
     <t>Runmode</t>
   </si>
@@ -1171,6 +1171,18 @@
   </si>
   <si>
     <t>Tauck In The News MAKING CHANGES|Media Center|Read the latest press releases from Tauck, and learn what's new from the world-leader in guided travel|Any description goes here</t>
+  </si>
+  <si>
+    <t>MAKING CHANGES Tauck In The News|Media Center|Read the latest press releases from Tauck, and learn what's new from the world-leader in guided travel|Any description goes here</t>
+  </si>
+  <si>
+    <t>MAKING CHANGES ONE COLUMN The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities.</t>
+  </si>
+  <si>
+    <t>MAKING CHANGES TWO COLUMN Immerse in the Earth Journeys experience, featuring custom-made BBC Earth on-tour film vignettes and when the opportunity arises, the use of field equipment. Few experiences can compare to the feeling you'll have as you head off on an expeditionary Antarctica cruise to a magnificent glacial continent that defies description. Your adv... see lions resting under enormous baobab trees... wildebeest making their way past herds of elephants and gazelles... elephants, up close. Travel aboard our open-top Africa safari vehicles where everyone has a great view of Tanzania's amazing wildlife during morning and afternoon game drives.</t>
+  </si>
+  <si>
+    <t>MAKING CHANGES ONE COLUMN COPY TEST - Exceptionally Spacious Accommodations The large Staterooms and Suites range in size from 200 to 398 square feet. 95% of the ship’s accommodations feature private balconies</t>
   </si>
 </sst>
 </file>
@@ -2324,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4538,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4905,8 +4917,8 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
+      <c r="A52" t="s">
+        <v>2</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -5034,7 +5046,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25 A27">
       <formula1>$A$196:$A$197</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A39:A44 A46:A47 A52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A39:A44 A46:A47">
       <formula1>$A$192:$A$193</formula1>
     </dataValidation>
   </dataValidations>
@@ -8800,7 +8812,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8892,7 +8904,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>3</v>
@@ -8937,7 +8949,7 @@
     </row>
     <row r="15" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
@@ -9002,7 +9014,7 @@
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>3</v>
@@ -9031,7 +9043,7 @@
     </row>
     <row r="21" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>
@@ -9046,7 +9058,7 @@
         <v>263</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="G21" s="75"/>
       <c r="H21" s="77"/>
@@ -9072,7 +9084,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9144,7 +9156,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
@@ -9198,7 +9210,7 @@
         <v>105</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>324</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>35</v>
@@ -9269,7 +9281,7 @@
         <v>263</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="G15" s="74" t="s">
         <v>132</v>
@@ -9298,7 +9310,7 @@
         <v>270</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="G16" s="75"/>
       <c r="H16" s="78"/>
@@ -9306,7 +9318,7 @@
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -9329,7 +9341,7 @@
     </row>
     <row r="18" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -4551,7 +4551,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4910,7 +4910,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
         <v>104</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -8812,7 +8812,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="15" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
@@ -9043,7 +9043,7 @@
     </row>
     <row r="21" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="13"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -4550,8 +4550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8811,8 +8811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="327">
   <si>
     <t>Runmode</t>
   </si>
@@ -1165,9 +1165,6 @@
   </si>
   <si>
     <t>Featured Content|Featured Content</t>
-  </si>
-  <si>
-    <t>MapControlWithDataSource</t>
   </si>
   <si>
     <t>Tauck In The News MAKING CHANGES|Media Center|Read the latest press releases from Tauck, and learn what's new from the world-leader in guided travel|Any description goes here</t>
@@ -1598,7 +1595,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1769,7 +1766,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1804,6 +1800,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1815,12 +1817,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2337,7 +2333,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2374,7 +2370,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -2491,7 +2487,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2523,7 +2519,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2568,7 +2564,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2633,7 +2629,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2651,18 +2647,18 @@
       <c r="F15" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="G15" s="74" t="s">
+      <c r="G15" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="70" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -2680,9 +2676,9 @@
       <c r="F16" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -2727,7 +2723,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -2745,18 +2741,18 @@
       <c r="F20" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="G20" s="73" t="s">
+      <c r="G20" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="72" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2774,12 +2770,12 @@
       <c r="F21" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -2797,12 +2793,12 @@
       <c r="F22" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2820,9 +2816,9 @@
       <c r="F23" s="61" t="s">
         <v>262</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G29" s="60"/>
@@ -2884,7 +2880,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2936,7 +2932,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -3010,7 +3006,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -3076,7 +3072,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -3146,7 +3142,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -3215,7 +3211,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -3233,18 +3229,18 @@
       <c r="F23" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="G23" s="74" t="s">
+      <c r="G23" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="70" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -3262,9 +3258,9 @@
       <c r="F24" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="G24" s="75"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3297,11 +3293,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3391,13 +3387,13 @@
         <v>196</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="81" t="s">
+      <c r="I7" s="82" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3420,9 +3416,9 @@
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -3491,13 +3487,13 @@
         <v>196</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="81" t="s">
+      <c r="H12" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="82" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3520,9 +3516,9 @@
       <c r="F13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -3591,13 +3587,13 @@
         <v>196</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="81" t="s">
+      <c r="H17" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="82" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3620,9 +3616,9 @@
       <c r="F18" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -3691,13 +3687,13 @@
         <v>196</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="81" t="s">
+      <c r="H22" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="81" t="s">
+      <c r="I22" s="82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3720,9 +3716,9 @@
       <c r="F23" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -4024,13 +4020,13 @@
         <v>196</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="83" t="s">
+      <c r="G39" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="71" t="s">
+      <c r="I39" s="70" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4053,9 +4049,9 @@
       <c r="F40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="72"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="71"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
@@ -4121,13 +4117,13 @@
       <c r="E44" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G44" s="71" t="s">
+      <c r="G44" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="71" t="s">
+      <c r="H44" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="I44" s="76" t="s">
+      <c r="I44" s="75" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4150,9 +4146,9 @@
       <c r="F45" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="69"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="68"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
@@ -4212,13 +4208,13 @@
       <c r="E49" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="H49" s="71" t="s">
+      <c r="H49" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="71" t="s">
+      <c r="I49" s="70" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4241,9 +4237,9 @@
       <c r="F50" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="22" t="s">
@@ -4303,13 +4299,13 @@
       <c r="E54" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G54" s="71" t="s">
+      <c r="G54" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H54" s="71" t="s">
+      <c r="H54" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I54" s="71" t="s">
+      <c r="I54" s="70" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4332,9 +4328,9 @@
       <c r="F55" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
@@ -4394,13 +4390,13 @@
       <c r="E59" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="G59" s="71" t="s">
+      <c r="G59" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="71" t="s">
+      <c r="H59" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="71" t="s">
+      <c r="I59" s="70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4423,12 +4419,24 @@
       <c r="F60" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="71"/>
+      <c r="I60" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
@@ -4445,18 +4453,6 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">
@@ -4484,11 +4480,11 @@
   </cols>
   <sheetData>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
@@ -5077,55 +5073,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
@@ -5164,11 +5160,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -5564,229 +5560,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="70"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="5"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -5848,11 +5844,11 @@
       <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="5"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -5914,11 +5910,11 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="5"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -5980,11 +5976,11 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="67" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="5"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6046,11 +6042,11 @@
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="5"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -6112,11 +6108,11 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="67" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="13"/>
@@ -6194,11 +6190,11 @@
       <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -6298,11 +6294,11 @@
       <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="67" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="13"/>
@@ -6368,11 +6364,11 @@
       <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -6455,16 +6451,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A1:J18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A40:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6514,7 +6510,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -6546,7 +6542,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -6591,7 +6587,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -6656,7 +6652,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -6727,7 +6723,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -6745,18 +6741,18 @@
       <c r="F20" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="G20" s="71" t="s">
+      <c r="G20" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="70" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -6774,9 +6770,9 @@
       <c r="F21" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
@@ -6797,9 +6793,9 @@
       <c r="F22" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6860,7 +6856,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -6912,7 +6908,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -6986,7 +6982,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -7052,7 +7048,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -7122,7 +7118,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -7140,18 +7136,18 @@
       <c r="F19" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="73" t="s">
+      <c r="G19" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="72" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -7169,12 +7165,12 @@
       <c r="F20" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -7192,12 +7188,12 @@
       <c r="F21" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -7215,9 +7211,9 @@
       <c r="F22" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
@@ -7273,7 +7269,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -7291,18 +7287,18 @@
       <c r="F26" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="G26" s="74" t="s">
+      <c r="G26" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="H26" s="76" t="s">
+      <c r="H26" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="71" t="s">
+      <c r="I26" s="70" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -7320,9 +7316,9 @@
       <c r="F27" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="75"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7381,7 +7377,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7413,7 +7409,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -7462,7 +7458,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -7536,7 +7532,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -7603,7 +7599,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -7674,7 +7670,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -7692,18 +7688,18 @@
       <c r="F23" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="71" t="s">
+      <c r="G23" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="70" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7721,12 +7717,12 @@
       <c r="F24" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
     </row>
     <row r="25" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -7744,12 +7740,12 @@
       <c r="F25" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
     </row>
     <row r="26" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -7767,9 +7763,9 @@
       <c r="F26" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
@@ -7814,7 +7810,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -7832,18 +7828,18 @@
       <c r="F30" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="G30" s="71" t="s">
+      <c r="G30" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="71" t="s">
+      <c r="I30" s="70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -7861,12 +7857,12 @@
       <c r="F31" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -7884,9 +7880,9 @@
       <c r="F32" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7944,7 +7940,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7976,7 +7972,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -8025,7 +8021,7 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -8099,7 +8095,7 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -8166,7 +8162,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -8229,7 +8225,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -8294,7 +8290,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -8312,18 +8308,18 @@
       <c r="F27" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="G27" s="71" t="s">
+      <c r="G27" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="71" t="s">
+      <c r="H27" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="71" t="s">
+      <c r="I27" s="70" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -8341,9 +8337,9 @@
       <c r="F28" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
@@ -8388,7 +8384,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -8406,18 +8402,18 @@
       <c r="F32" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="71" t="s">
+      <c r="I32" s="70" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -8435,12 +8431,12 @@
       <c r="F33" s="63" t="s">
         <v>309</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
     </row>
     <row r="34" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -8458,12 +8454,12 @@
       <c r="F34" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
     </row>
     <row r="35" spans="1:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -8481,9 +8477,9 @@
       <c r="F35" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
@@ -8528,7 +8524,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -8546,18 +8542,18 @@
       <c r="F39" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="G39" s="71" t="s">
+      <c r="G39" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="H39" s="71" t="s">
+      <c r="H39" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="71" t="s">
+      <c r="I39" s="70" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -8575,12 +8571,12 @@
       <c r="F40" s="65" t="s">
         <v>319</v>
       </c>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -8598,9 +8594,9 @@
       <c r="F41" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="22" t="s">
@@ -8645,7 +8641,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="8" t="s">
@@ -8714,7 +8710,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -8732,18 +8728,18 @@
       <c r="F49" s="63" t="s">
         <v>292</v>
       </c>
-      <c r="G49" s="71" t="s">
+      <c r="G49" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="71" t="s">
+      <c r="H49" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="I49" s="71" t="s">
+      <c r="I49" s="70" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
@@ -8761,12 +8757,12 @@
       <c r="F50" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
     </row>
     <row r="51" spans="1:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -8784,9 +8780,9 @@
       <c r="F51" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8809,10 +8805,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8828,35 +8824,50 @@
     <col min="9" max="9" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="66"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>0</v>
       </c>
@@ -8864,217 +8875,177 @@
         <v>1</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
-        <v>2</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="66" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="C10" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="B16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" s="71" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="61" t="s">
+      <c r="E17" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="78"/>
+      <c r="F17" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>$A$178:$A$179</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9123,7 +9094,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -9155,7 +9126,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -9200,7 +9171,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -9210,7 +9181,7 @@
         <v>105</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>35</v>
@@ -9265,7 +9236,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -9281,20 +9252,20 @@
         <v>263</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G15" s="74" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="70" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -9310,14 +9281,14 @@
         <v>270</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>326</v>
-      </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+        <v>325</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -9335,12 +9306,12 @@
       <c r="F17" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
     </row>
     <row r="18" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="66" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -9358,9 +9329,9 @@
       <c r="F18" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="G18" s="75"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="7"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="46100" windowHeight="26000" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1594,8 +1594,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1800,12 +1804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1818,6 +1816,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1827,8 +1831,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1960,6 +1965,8 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
@@ -2031,6 +2038,8 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2333,7 +2342,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2353,23 +2362,23 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
+      <c r="B2" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2377,16 +2386,16 @@
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
+      <c r="B5" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+      <c r="B6" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2409,32 +2418,32 @@
       <c r="A9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
+      <c r="B9" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
+      <c r="B10" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
+      <c r="B11" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
+      <c r="B12" s="48" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2840,7 +2849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -3276,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showRuler="0" topLeftCell="A40" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3315,8 +3324,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>3</v>
@@ -3371,8 +3380,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
+      <c r="A7" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
@@ -3387,19 +3396,19 @@
         <v>196</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="82" t="s">
+      <c r="I7" s="80" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
+      <c r="A8" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>3</v>
@@ -3416,9 +3425,9 @@
       <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
@@ -3471,8 +3480,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
+      <c r="A12" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>3</v>
@@ -3487,19 +3496,19 @@
         <v>196</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="80" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>4</v>
+      <c r="A13" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
@@ -3516,9 +3525,9 @@
       <c r="F13" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -3571,8 +3580,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>4</v>
+      <c r="A17" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -3587,19 +3596,19 @@
         <v>196</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="80" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
+      <c r="A18" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>
@@ -3616,9 +3625,9 @@
       <c r="F18" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
@@ -3671,8 +3680,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>4</v>
+      <c r="A22" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>3</v>
@@ -3687,19 +3696,19 @@
         <v>196</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="80" t="s">
+      <c r="G22" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="82" t="s">
+      <c r="H22" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="82" t="s">
+      <c r="I22" s="80" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>4</v>
+      <c r="A23" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>3</v>
@@ -3716,9 +3725,9 @@
       <c r="F23" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
@@ -3771,8 +3780,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>4</v>
+      <c r="A27" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
@@ -3850,8 +3859,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
+      <c r="A31" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>3</v>
@@ -3929,8 +3938,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
+      <c r="A35" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>3</v>
@@ -4004,8 +4013,8 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
+      <c r="A39" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>3</v>
@@ -4020,10 +4029,10 @@
         <v>196</v>
       </c>
       <c r="F39" s="19"/>
-      <c r="G39" s="78" t="s">
+      <c r="G39" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="78" t="s">
+      <c r="H39" s="82" t="s">
         <v>31</v>
       </c>
       <c r="I39" s="70" t="s">
@@ -4031,8 +4040,8 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
+      <c r="A40" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>3</v>
@@ -4049,8 +4058,8 @@
       <c r="F40" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="71"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -4193,8 +4202,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>4</v>
+      <c r="A49" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>3</v>
@@ -4219,8 +4228,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
+      <c r="A50" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>3</v>
@@ -4284,8 +4293,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>4</v>
+      <c r="A54" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>3</v>
@@ -4310,8 +4319,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
+      <c r="A55" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>3</v>
@@ -4375,8 +4384,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>4</v>
+      <c r="A59" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>3</v>
@@ -4401,8 +4410,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>4</v>
+      <c r="A60" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>3</v>
@@ -4425,18 +4434,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
@@ -4453,6 +4450,18 @@
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A45">
@@ -4546,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A36" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4906,7 +4915,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>104</v>
@@ -4914,7 +4923,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -5054,7 +5063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -5543,8 +5552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A38" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showRuler="0" topLeftCell="A30" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5878,8 +5887,8 @@
       <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
+      <c r="A26" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>3</v>
@@ -5944,8 +5953,8 @@
       <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
+      <c r="A30" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>3</v>
@@ -6010,8 +6019,8 @@
       <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
+      <c r="A34" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>3</v>
@@ -6076,8 +6085,8 @@
       <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
+      <c r="A38" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>3</v>
@@ -6144,8 +6153,8 @@
       <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
+      <c r="A42" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>3</v>
@@ -6230,8 +6239,8 @@
       <c r="J46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
+      <c r="A47" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>3</v>
@@ -6256,8 +6265,8 @@
       <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>4</v>
+      <c r="A48" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>3</v>
@@ -6426,8 +6435,8 @@
       <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>4</v>
+      <c r="A57" s="48" t="s">
+        <v>2</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>3</v>
@@ -6451,16 +6460,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:J18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A50:C50"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A1:J18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6470,7 +6479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -6816,7 +6825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -7337,7 +7346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A23" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -7901,7 +7910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -8807,8 +8816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8880,7 +8889,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
@@ -8989,8 +8998,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
-        <v>4</v>
+      <c r="A16" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -9018,8 +9027,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
-        <v>4</v>
+      <c r="A17" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -9055,7 +9064,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9127,7 +9136,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="66" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
@@ -9288,8 +9297,8 @@
       <c r="I16" s="77"/>
     </row>
     <row r="17" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="66" t="s">
-        <v>4</v>
+      <c r="A17" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -9311,8 +9320,8 @@
       <c r="I17" s="77"/>
     </row>
     <row r="18" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="66" t="s">
-        <v>4</v>
+      <c r="A18" s="87" t="s">
+        <v>2</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>3</v>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -4556,7 +4556,7 @@
   <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A36" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>5</v>
@@ -8817,7 +8817,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="328">
   <si>
     <t>Runmode</t>
   </si>
@@ -1180,6 +1180,9 @@
   </si>
   <si>
     <t>MAKING CHANGES ONE COLUMN COPY TEST - Exceptionally Spacious Accommodations The large Staterooms and Suites range in size from 200 to 398 square feet. 95% of the ship’s accommodations feature private balconies</t>
+  </si>
+  <si>
+    <t>THREE COLUMN -The Le Boreal is the newest ship sailing to Antarctica - launched in May, 2010. 'Le Boreal' features elegant design and innovative state-of-the-art marine technology. The vessel boasts a convenient and sensible layout, aided by three passenger elevators. She offers a single seating dining room, al fresco dining, an outdoor heated pool, and a modern lecture facility and theater, as well as an ample and comfortable gathering area and library. A full-service salon, steam rooms, spa and fitness center complete the amenities.All Suites and the majority of the Staterooms feature two twin beds which can be converted into one queen-size bed, a private bathroom with shower (some with bathtub), international direct dial telephone, satellite flat screen television, DVD/CD, iPod dock with speakers, wireless Internet access, safe, minibar, full-length closets, writing desk/dressing table, hair dryer, duvet and plush terry cloth robes.Public areas have been designed to accommodate passenger numbers exceeding the ship’s capacity to ensure guests can enjoy an inviting, spacious ambiance. The attractive 3,000-square-foot Le Club lounge, where nightly entertainment is showcased, is complete with a dance floor, while the Panoramic Lounge is designed to offer breathtaking views. The state-of-the-art theatre is the perfect venue for lectures, cultural performances and film screenings. There is a library, casino, Internet salon offering Internet access and computer stations for personal use, beauty salon, elevator and infirmary.</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2345,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4555,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A36" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4690,16 +4693,16 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
+      <c r="A18" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
+      <c r="A19" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>107</v>
@@ -4714,8 +4717,8 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>2</v>
+      <c r="A21" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B21" t="s">
         <v>81</v>
@@ -5048,7 +5051,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A14">
       <formula1>$A$187:$A$188</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25 A27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A25 A27 A18:A19 A21">
       <formula1>$A$196:$A$197</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A39:A44 A46:A47">
@@ -6479,8 +6482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showRuler="0" topLeftCell="A4" zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6825,8 +6828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showRuler="0" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7294,7 +7297,7 @@
         <v>118</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
       <c r="G26" s="73" t="s">
         <v>114</v>
@@ -7308,7 +7311,7 @@
     </row>
     <row r="27" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="66" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
@@ -8817,7 +8820,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/Data/TestData.xlsx
+++ b/src/Data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="460" windowWidth="49480" windowHeight="24580" activeTab="5"/>
+    <workbookView xWindow="1680" yWindow="460" windowWidth="49480" windowHeight="24580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="4" r:id="rId1"/>
@@ -6723,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A61" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>3</v>
@@ -6925,7 +6925,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>3</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="14" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>3</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="15" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>3</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="16" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>3</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>3</v>
@@ -7099,7 +7099,7 @@
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>3</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
@@ -7209,7 +7209,7 @@
     </row>
     <row r="28" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>3</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="29" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>3</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="30" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>3</v>
@@ -7547,7 +7547,7 @@
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>3</v>
@@ -7571,7 +7571,7 @@
     </row>
     <row r="48" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>3</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="49" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>3</v>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>3</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="56" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>3</v>
@@ -7738,7 +7738,7 @@
     </row>
     <row r="57" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>3</v>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="58" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>3</v>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>3</v>
@@ -7859,7 +7859,7 @@
     </row>
     <row r="64" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>3</v>
@@ -7879,7 +7879,7 @@
     </row>
     <row r="65" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>3</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>3</v>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="71" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>3</v>
@@ -8058,7 +8058,7 @@
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="76" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>3</v>
@@ -8574,7 +8574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
